--- a/compartilhamento/Abaixo de Zero.xlsx
+++ b/compartilhamento/Abaixo de Zero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Complemento</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Registro</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de imóvel</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dez anterior</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Fev</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Abr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Mai</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -478,32 +498,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Galpão 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A79B53393</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25247.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25314.9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25389.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25443.5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25518.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25587.1</v>
-      </c>
+          <t>LEITURA HIDRÔMETROS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,159 +519,313 @@
           <t>Galpão 1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Abaixo de Zero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>A79B53393</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>105.8 m³</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.5 m³</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.8 m³</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>53.8 m³</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>75.0 m³</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>68.6 m³</t>
-        </is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>25141.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25247.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25314.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25389.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25443.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25518.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25587.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>105.8 m³</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.5 m³</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.8 m³</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>53.8 m³</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>75.0 m³</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>68.6 m³</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Galpão 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A79B53393</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>R$ 1212.47</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>R$ 773.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>R$ 857.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>R$ 616.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>R$ 859.5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>R$ 786.16</t>
-        </is>
-      </c>
+          <t>CONSUMO ÁGUA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Galpão 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Abaixo de Zero</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A79B53393</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>105.8 m³</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>67.5 m³</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>74.8 m³</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>53.8 m³</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>75.0 m³</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>68.6 m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>105.8 m³</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>67.5 m³</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>74.8 m³</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>53.8 m³</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>75.0 m³</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>68.6 m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CUSTO ÁGUA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Galpão 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Abaixo de Zero</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A79B53393</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>R$ 1212.47</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>R$ 773.55</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>R$ 857.21</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>R$ 616.55</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>R$ 859.5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>R$ 786.16</t>
         </is>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>R$ 1212.47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>R$ 773.55</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>R$ 857.21</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>R$ 616.55</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>R$ 859.5</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>R$ 786.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
